--- a/DCR_MODS_templates/ExceltoMODSWF/archival-mods-template-tracking.xlsx
+++ b/DCR_MODS_templates/ExceltoMODSWF/archival-mods-template-tracking.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_5FB3C677B21377203F06111C973392262C7306E9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBB068B3-745E-4DC7-9CD6-572BD96997D4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54AED6E-3A4C-4C5F-BE29-6E509218216D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="555" windowWidth="25845" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,9 +42,6 @@
     <t>PID</t>
   </si>
   <si>
-    <t>"&gt;&lt;update type="MODS"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
-  </si>
-  <si>
     <t>Current digital folder title</t>
   </si>
   <si>
@@ -91,14 +93,17 @@
     <t>Collection Number</t>
   </si>
   <si>
-    <t>&lt;/mods:mods&gt;&lt;/update&gt;&lt;/object&gt;</t>
+    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,11 +486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -498,12 +503,12 @@
     <col min="21" max="21" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,70 +516,70 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="V2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R3" s="3"/>
     </row>
   </sheetData>
@@ -815,13 +820,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44FB755-8C9B-4CB6-95A2-254F0D372514}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44FB755-8C9B-4CB6-95A2-254F0D372514}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB4F8E38-E895-4C00-88AC-E6AFB959758D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB4F8E38-E895-4C00-88AC-E6AFB959758D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="81007de4-ee29-48be-8634-4fbb6dd6f763"/>
+    <ds:schemaRef ds:uri="fdb5634d-e10a-4de6-afed-2492c365d474"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ED3060-484C-45F0-B189-D33379E4EB97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ED3060-484C-45F0-B189-D33379E4EB97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>